--- a/19/005.xlsx
+++ b/19/005.xlsx
@@ -101,8 +101,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -206,7 +207,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -235,12 +236,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="17.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -286,7 +289,8 @@
         <v>9</v>
       </c>
       <c r="H2" s="5" t="n">
-        <v>95140</v>
+        <f aca="false">SUM(F76:F201)</f>
+        <v>94250</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
